--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Drive\Documentos_Zuzus\Controle de gastos\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45B9F8BD-5691-46BD-82CC-6FC9B08BE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF0CC72-310D-4FF6-9EEF-42DA56CFD439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{A6DC4CB5-17F4-44A1-BC4A-4FE656F64353}"/>
   </bookViews>
@@ -2495,8 +2495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{626941F8-8DFB-4BCE-AF91-C410F19E4BEF}">
   <dimension ref="A1:E1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A1148" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I1164" sqref="I1164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21434,6 +21434,9 @@
       <c r="D1110" s="25" t="s">
         <v>575</v>
       </c>
+      <c r="E1110" s="26">
+        <v>45763</v>
+      </c>
     </row>
     <row r="1111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1111" s="31" t="s">
@@ -21448,6 +21451,9 @@
       <c r="D1111" s="27" t="s">
         <v>575</v>
       </c>
+      <c r="E1111" s="28">
+        <v>45763</v>
+      </c>
     </row>
     <row r="1112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1112" s="32" t="s">
@@ -21462,6 +21468,9 @@
       <c r="D1112" s="25" t="s">
         <v>20</v>
       </c>
+      <c r="E1112" s="26">
+        <v>45770</v>
+      </c>
     </row>
     <row r="1113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1113" s="31" t="s">
@@ -21476,6 +21485,9 @@
       <c r="D1113" s="27" t="s">
         <v>20</v>
       </c>
+      <c r="E1113" s="28">
+        <v>45770</v>
+      </c>
     </row>
     <row r="1114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1114" s="32" t="s">
@@ -21490,6 +21502,9 @@
       <c r="D1114" s="25" t="s">
         <v>575</v>
       </c>
+      <c r="E1114" s="26">
+        <v>45771</v>
+      </c>
     </row>
     <row r="1115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1115" s="31" t="s">
@@ -21504,6 +21519,9 @@
       <c r="D1115" s="27" t="s">
         <v>20</v>
       </c>
+      <c r="E1115" s="28">
+        <v>45773</v>
+      </c>
     </row>
     <row r="1116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1116" s="32" t="s">
@@ -21518,6 +21536,9 @@
       <c r="D1116" s="25" t="s">
         <v>575</v>
       </c>
+      <c r="E1116" s="26">
+        <v>45772</v>
+      </c>
     </row>
     <row r="1117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1117" s="31" t="s">
@@ -21532,6 +21553,9 @@
       <c r="D1117" s="27" t="s">
         <v>66</v>
       </c>
+      <c r="E1117" s="28">
+        <v>45776</v>
+      </c>
     </row>
     <row r="1118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1118" s="29" t="s">
@@ -21546,6 +21570,9 @@
       <c r="D1118" s="25" t="s">
         <v>589</v>
       </c>
+      <c r="E1118" s="26">
+        <v>45777</v>
+      </c>
     </row>
     <row r="1119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1119" s="30" t="s">
@@ -21560,6 +21587,9 @@
       <c r="D1119" s="27" t="s">
         <v>589</v>
       </c>
+      <c r="E1119" s="28">
+        <v>45777</v>
+      </c>
     </row>
     <row r="1120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1120" s="29" t="s">
@@ -21574,8 +21604,11 @@
       <c r="D1120" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1120" s="26">
+        <v>45777</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1121" s="30" t="s">
         <v>626</v>
       </c>
@@ -21588,8 +21621,11 @@
       <c r="D1121" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1121" s="28">
+        <v>45779</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1122" s="29" t="s">
         <v>518</v>
       </c>
@@ -21602,8 +21638,11 @@
       <c r="D1122" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1122" s="26">
+        <v>45780</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1123" s="30" t="s">
         <v>627</v>
       </c>
@@ -21616,8 +21655,11 @@
       <c r="D1123" s="30" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1123" s="28">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1124" s="29" t="s">
         <v>628</v>
       </c>
@@ -21630,8 +21672,11 @@
       <c r="D1124" s="29" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1124" s="26">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1125" s="30" t="s">
         <v>629</v>
       </c>
@@ -21644,8 +21689,11 @@
       <c r="D1125" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1125" s="28">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1126" s="32" t="s">
         <v>630</v>
       </c>
@@ -21658,8 +21706,11 @@
       <c r="D1126" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1126" s="26">
+        <v>45783</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1127" s="31" t="s">
         <v>631</v>
       </c>
@@ -21672,8 +21723,11 @@
       <c r="D1127" s="27" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1127" s="28">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1128" s="32" t="s">
         <v>632</v>
       </c>
@@ -21686,8 +21740,11 @@
       <c r="D1128" s="25" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1128" s="26">
+        <v>45781</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1129" s="31" t="s">
         <v>634</v>
       </c>
@@ -21700,8 +21757,11 @@
       <c r="D1129" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1129" s="28">
+        <v>45784</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1130" s="32" t="s">
         <v>635</v>
       </c>
@@ -21714,8 +21774,11 @@
       <c r="D1130" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1130" s="26">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1131" s="31" t="s">
         <v>636</v>
       </c>
@@ -21728,8 +21791,11 @@
       <c r="D1131" s="27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1131" s="28">
+        <v>45785</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1132" s="32" t="s">
         <v>599</v>
       </c>
@@ -21742,8 +21808,11 @@
       <c r="D1132" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1132" s="26">
+        <v>45786</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1133" s="31" t="s">
         <v>538</v>
       </c>
@@ -21756,8 +21825,11 @@
       <c r="D1133" s="27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1133" s="28">
+        <v>45790</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1134" s="32" t="s">
         <v>603</v>
       </c>
@@ -21770,8 +21842,11 @@
       <c r="D1134" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1134" s="26">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1135" s="31" t="s">
         <v>637</v>
       </c>
@@ -21784,8 +21859,11 @@
       <c r="D1135" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1135" s="28">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1136" s="32" t="s">
         <v>578</v>
       </c>
@@ -21798,8 +21876,11 @@
       <c r="D1136" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1136" s="26">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1137" s="31" t="s">
         <v>638</v>
       </c>
@@ -21812,8 +21893,11 @@
       <c r="D1137" s="27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1137" s="28">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1138" s="32" t="s">
         <v>562</v>
       </c>
@@ -21826,8 +21910,11 @@
       <c r="D1138" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1138" s="26">
+        <v>45798</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1139" s="31" t="s">
         <v>606</v>
       </c>
@@ -21840,8 +21927,11 @@
       <c r="D1139" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1139" s="28">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1140" s="32" t="s">
         <v>639</v>
       </c>
@@ -21854,8 +21944,11 @@
       <c r="D1140" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1140" s="26">
+        <v>45802</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1141" s="31" t="s">
         <v>640</v>
       </c>
@@ -21868,8 +21961,11 @@
       <c r="D1141" s="27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1141" s="28">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1142" s="32" t="s">
         <v>641</v>
       </c>
@@ -21882,8 +21978,11 @@
       <c r="D1142" s="25" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1142" s="26">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1143" s="31" t="s">
         <v>642</v>
       </c>
@@ -21896,8 +21995,11 @@
       <c r="D1143" s="27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1143" s="28">
+        <v>45807</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1144" s="32" t="s">
         <v>643</v>
       </c>
@@ -21910,8 +22012,11 @@
       <c r="D1144" s="25" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1144" s="26">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1145" s="31" t="s">
         <v>518</v>
       </c>
@@ -21924,8 +22029,11 @@
       <c r="D1145" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1145" s="28">
+        <v>45810</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1146" s="32" t="s">
         <v>608</v>
       </c>
@@ -21938,8 +22046,11 @@
       <c r="D1146" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1146" s="26">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1147" s="31" t="s">
         <v>644</v>
       </c>
@@ -21952,8 +22063,11 @@
       <c r="D1147" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1147" s="28">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1148" s="32" t="s">
         <v>645</v>
       </c>
@@ -21966,8 +22080,11 @@
       <c r="D1148" s="25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1148" s="26">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1149" s="31" t="s">
         <v>606</v>
       </c>
@@ -21980,8 +22097,11 @@
       <c r="D1149" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1149" s="28">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1150" s="32" t="s">
         <v>606</v>
       </c>
@@ -21994,8 +22114,11 @@
       <c r="D1150" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1150" s="26">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1151" s="31" t="s">
         <v>608</v>
       </c>
@@ -22008,8 +22131,11 @@
       <c r="D1151" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1151" s="28">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1152" s="32" t="s">
         <v>577</v>
       </c>
@@ -22022,8 +22148,11 @@
       <c r="D1152" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1152" s="26">
+        <v>45820</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1153" s="31" t="s">
         <v>646</v>
       </c>
@@ -22036,8 +22165,11 @@
       <c r="D1153" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1153" s="28">
+        <v>45822</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1154" s="32" t="s">
         <v>647</v>
       </c>
@@ -22050,8 +22182,11 @@
       <c r="D1154" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1154" s="26">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1155" s="31" t="s">
         <v>639</v>
       </c>
@@ -22064,8 +22199,11 @@
       <c r="D1155" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1155" s="28">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1156" s="32" t="s">
         <v>648</v>
       </c>
@@ -22078,8 +22216,11 @@
       <c r="D1156" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1156" s="26">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1157" s="31" t="s">
         <v>642</v>
       </c>
@@ -22092,8 +22233,11 @@
       <c r="D1157" s="27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1157" s="28">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1158" s="32" t="s">
         <v>502</v>
       </c>
@@ -22106,8 +22250,11 @@
       <c r="D1158" s="25" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1158" s="26">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1159" s="31" t="s">
         <v>608</v>
       </c>
@@ -22120,8 +22267,11 @@
       <c r="D1159" s="27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1159" s="28">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1160" s="32" t="s">
         <v>649</v>
       </c>
@@ -22134,8 +22284,11 @@
       <c r="D1160" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1160" s="26">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1161" s="31" t="s">
         <v>621</v>
       </c>
@@ -22148,8 +22301,11 @@
       <c r="D1161" s="27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1161" s="28">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1162" s="32" t="s">
         <v>650</v>
       </c>
@@ -22162,8 +22318,11 @@
       <c r="D1162" s="25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1162" s="26">
+        <v>45849</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1163" s="31" t="s">
         <v>651</v>
       </c>
@@ -22176,8 +22335,11 @@
       <c r="D1163" s="27" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1163" s="28">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1164" s="29" t="s">
         <v>651</v>
       </c>
@@ -22190,8 +22352,11 @@
       <c r="D1164" s="25" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1164" s="26">
+        <v>45856</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1165" s="31" t="s">
         <v>652</v>
       </c>
@@ -22203,6 +22368,9 @@
       </c>
       <c r="D1165" s="27" t="s">
         <v>20</v>
+      </c>
+      <c r="E1165" s="28">
+        <v>45856</v>
       </c>
     </row>
   </sheetData>
